--- a/Графики.xlsx
+++ b/Графики.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MrKirill1232\Универ\3 курс\СЕБЖ\Лаборатоные Работы\Решения_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8220F08E-C5AE-4C6D-9D44-492CF84B0329}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FBC70B-8E40-44AF-8269-7E7F0CB698A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{192199B6-F9DE-499F-9F88-9044D882A7ED}"/>
   </bookViews>
@@ -1020,28 +1020,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>106</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>98</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>72</c:v>
+                  <c:v>67</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>74</c:v>
+                  <c:v>68</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>77</c:v>
+                  <c:v>55</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>81</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>84</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>96</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1169,28 +1169,28 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>91</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>77</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>73</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>70</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>68</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>66</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>64</c:v>
+                  <c:v>38</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4118,8 +4118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A25B6E46-C818-4B8A-8678-FE21F00870B4}">
   <dimension ref="B3:J9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4132,28 +4132,28 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>106</v>
+        <v>78</v>
       </c>
       <c r="D3">
-        <v>98</v>
+        <v>76</v>
       </c>
       <c r="E3">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F3">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="G3">
-        <v>77</v>
+        <v>55</v>
       </c>
       <c r="H3">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="I3">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="J3">
-        <v>96</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.25">
@@ -4161,28 +4161,28 @@
         <v>1</v>
       </c>
       <c r="C5">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D5">
-        <v>83</v>
+        <v>61</v>
       </c>
       <c r="E5">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F5">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="G5">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="H5">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="I5">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="J5">
-        <v>64</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.25">
